--- a/src/sample/UANFName.xlsx
+++ b/src/sample/UANFName.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053E91E6-9A29-4BA5-8E7C-D4B8E93C6D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99A35C0-E434-4070-A609-D22927EE5416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="4008" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,13 +106,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -357,20 +424,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>101778711107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>101966992846</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>101720678369</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>101770499581</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>100192005418</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>100316199608</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>101200664769</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>101914185328</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>101263581176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>101199025319</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>101760355354</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>101714196366</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>101384973205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>101683067734</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B14">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
